--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb2-Ephb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H2">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I2">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J2">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8299853333333332</v>
+        <v>1.306600666666667</v>
       </c>
       <c r="N2">
-        <v>2.489956</v>
+        <v>3.919802</v>
       </c>
       <c r="O2">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="P2">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="Q2">
-        <v>17.38347952328711</v>
+        <v>55.8608483057391</v>
       </c>
       <c r="R2">
-        <v>156.451315709584</v>
+        <v>502.7476347516519</v>
       </c>
       <c r="S2">
-        <v>0.5437065680248537</v>
+        <v>0.6940392403102322</v>
       </c>
       <c r="T2">
-        <v>0.5437065680248536</v>
+        <v>0.6940392403102323</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H3">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I3">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J3">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.033067</v>
       </c>
       <c r="O3">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="P3">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="Q3">
-        <v>0.2308552911764445</v>
+        <v>0.4712357080602221</v>
       </c>
       <c r="R3">
-        <v>2.077697620588</v>
+        <v>4.241121372542</v>
       </c>
       <c r="S3">
-        <v>0.007220507143450664</v>
+        <v>0.005854835412436253</v>
       </c>
       <c r="T3">
-        <v>0.007220507143450662</v>
+        <v>0.005854835412436254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.94432133333333</v>
+        <v>42.75280866666666</v>
       </c>
       <c r="H4">
-        <v>62.832964</v>
+        <v>128.258426</v>
       </c>
       <c r="I4">
-        <v>0.7396577289668299</v>
+        <v>0.8529286054750734</v>
       </c>
       <c r="J4">
-        <v>0.7396577289668298</v>
+        <v>0.8529286054750735</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2881033333333334</v>
+        <v>0.2881033333333333</v>
       </c>
       <c r="N4">
-        <v>0.8643100000000001</v>
+        <v>0.86431</v>
       </c>
       <c r="O4">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="P4">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="Q4">
-        <v>6.034128790537779</v>
+        <v>12.31722668622889</v>
       </c>
       <c r="R4">
-        <v>54.30715911484001</v>
+        <v>110.85504017606</v>
       </c>
       <c r="S4">
-        <v>0.1887306537985255</v>
+        <v>0.153034529752405</v>
       </c>
       <c r="T4">
-        <v>0.1887306537985255</v>
+        <v>0.1530345297524051</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>6.981284</v>
       </c>
       <c r="I5">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J5">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8299853333333332</v>
+        <v>1.306600666666667</v>
       </c>
       <c r="N5">
-        <v>2.489956</v>
+        <v>3.919802</v>
       </c>
       <c r="O5">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="P5">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="Q5">
-        <v>1.931454442611556</v>
+        <v>3.040583442863111</v>
       </c>
       <c r="R5">
-        <v>17.383089983504</v>
+        <v>27.365250985768</v>
       </c>
       <c r="S5">
-        <v>0.06041048714567759</v>
+        <v>0.03777751836553788</v>
       </c>
       <c r="T5">
-        <v>0.06041048714567759</v>
+        <v>0.03777751836553788</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>6.981284</v>
       </c>
       <c r="I6">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J6">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.033067</v>
       </c>
       <c r="O6">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="P6">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="Q6">
         <v>0.02565001311422222</v>
@@ -818,10 +818,10 @@
         <v>0.230850118028</v>
       </c>
       <c r="S6">
-        <v>0.000802260593539051</v>
+        <v>0.0003186868111688399</v>
       </c>
       <c r="T6">
-        <v>0.0008022605935390509</v>
+        <v>0.0003186868111688399</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>6.981284</v>
       </c>
       <c r="I7">
-        <v>0.08218235047311259</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="J7">
-        <v>0.08218235047311258</v>
+        <v>0.04642608686423023</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2881033333333334</v>
+        <v>0.2881033333333333</v>
       </c>
       <c r="N7">
-        <v>0.8643100000000001</v>
+        <v>0.86431</v>
       </c>
       <c r="O7">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="P7">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="Q7">
-        <v>0.6704437304488891</v>
+        <v>0.6704437304488889</v>
       </c>
       <c r="R7">
-        <v>6.033993574040001</v>
+        <v>6.03399357404</v>
       </c>
       <c r="S7">
-        <v>0.02096960273389594</v>
+        <v>0.008329881687523513</v>
       </c>
       <c r="T7">
-        <v>0.02096960273389594</v>
+        <v>0.008329881687523515</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H8">
         <v>15.134454</v>
       </c>
       <c r="I8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J8">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8299853333333332</v>
+        <v>1.306600666666667</v>
       </c>
       <c r="N8">
-        <v>2.489956</v>
+        <v>3.919802</v>
       </c>
       <c r="O8">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="P8">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="Q8">
-        <v>4.187124949336</v>
+        <v>6.591562562011998</v>
       </c>
       <c r="R8">
-        <v>37.684124544024</v>
+        <v>59.32406305810799</v>
       </c>
       <c r="S8">
-        <v>0.1309615450143339</v>
+        <v>0.081896412456131</v>
       </c>
       <c r="T8">
-        <v>0.1309615450143339</v>
+        <v>0.081896412456131</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H9">
         <v>15.134454</v>
       </c>
       <c r="I9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J9">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,22 +992,22 @@
         <v>0.033067</v>
       </c>
       <c r="O9">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="P9">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="Q9">
         <v>0.055605665602</v>
       </c>
       <c r="R9">
-        <v>0.500450990418</v>
+        <v>0.5004509904179999</v>
       </c>
       <c r="S9">
-        <v>0.001739189531457174</v>
+        <v>0.0006908687404840561</v>
       </c>
       <c r="T9">
-        <v>0.001739189531457174</v>
+        <v>0.0006908687404840561</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.044818</v>
+        <v>5.044817999999999</v>
       </c>
       <c r="H10">
         <v>15.134454</v>
       </c>
       <c r="I10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="J10">
-        <v>0.1781599205600575</v>
+        <v>0.1006453076606963</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,16 +1048,16 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2881033333333334</v>
+        <v>0.2881033333333333</v>
       </c>
       <c r="N10">
-        <v>0.8643100000000001</v>
+        <v>0.86431</v>
       </c>
       <c r="O10">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="P10">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="Q10">
         <v>1.45342888186</v>
@@ -1066,10 +1066,10 @@
         <v>13.08085993674</v>
       </c>
       <c r="S10">
-        <v>0.04545918601426648</v>
+        <v>0.01805802646408124</v>
       </c>
       <c r="T10">
-        <v>0.04545918601426648</v>
+        <v>0.01805802646408125</v>
       </c>
     </row>
   </sheetData>
